--- a/pred_ohlcv/54_21/2020-01-14 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 OGO ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>398938.6399</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3229661.815551325</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4085334.798030235</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3617958.370330235</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3396308.868030236</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2733403.439830236</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3078193.635430235</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2546162.134004638</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2666682.723704637</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2724769.631904637</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2591989.968504637</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2761544.556004637</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2255693.189404638</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2210179.569804638</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2319304.265204638</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2382732.424804638</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1180014.033104638</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1144135.701204638</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1232756.241404637</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1265044.756607433</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-793085.5902853751</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-881135.7926853751</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-842435.7726853751</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-843894.988785375</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-841846.865585375</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-841895.035185375</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-841751.310085375</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1607307.235285375</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1606352.125447744</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1711173.011447744</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1697173.011447744</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1511040.051747744</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1460977.626431039</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1461024.094931039</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 OGO ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-24648.27300000004</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>398938.6399</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>610423.3180999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>780134.1547816772</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3336486.100151325</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3229661.815551325</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4025503.068781959</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4085334.798030235</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3617958.370330235</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3396308.868030236</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2733403.439830236</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3078193.635430235</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2546162.134004638</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2210179.569804638</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2382732.424804638</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1164335.392604638</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1131068.814904638</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1144135.701204638</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1232756.241404637</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1181521.813304638</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1265044.756607433</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-793085.5902853751</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-881135.7926853751</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-842435.7726853751</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-843894.988785375</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-841846.865585375</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-841895.035185375</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-841799.111285375</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-841751.310085375</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-918897.296985375</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1607307.235285375</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1606352.125447744</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1711173.011447744</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1697173.011447744</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1511040.051747744</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1460977.626431039</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1461024.094931039</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
